--- a/localized/en-us/games/books/bookdata/en_338/en_338.xlsx
+++ b/localized/en-us/games/books/bookdata/en_338/en_338.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28209"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/GoogleDrive/My Drive/@Enuma_Share/@Project_XPRIZE/Resources/Books/Phase 3 Books/books in progress (shared with partners)/en_338 /"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GLEXP-Team-KitkitSchool-Hindi-Assets-MainApp\localized\en-us\games\books\bookdata\en_338\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FD818A5-4E55-4E7E-85B9-5C5B9B3586AA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30280" yWindow="2700" windowWidth="20840" windowHeight="19740" tabRatio="500"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,30 +30,12 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
-    <t>Catherine in the Dark</t>
-  </si>
-  <si>
-    <t>Catherine was still afraid.</t>
-  </si>
-  <si>
-    <t>Catherine was not afraid of the dark anymore.</t>
-  </si>
-  <si>
-    <t>Catherine was afraid of the dark.</t>
-  </si>
-  <si>
     <t>She needed to look for her mom.</t>
   </si>
   <si>
-    <t>Catherine saw two eyes in the dark.</t>
-  </si>
-  <si>
     <t>But it was just a cat.</t>
   </si>
   <si>
-    <t>Catherine saw a big shape.</t>
-  </si>
-  <si>
     <t>She hid in a bush.</t>
   </si>
   <si>
@@ -63,12 +46,30 @@
   </si>
   <si>
     <t>But then she saw her mom coming home!</t>
+  </si>
+  <si>
+    <t>Sonia in the Dark</t>
+  </si>
+  <si>
+    <t>Sonia was afraid of the dark.</t>
+  </si>
+  <si>
+    <t>Sonia saw two eyes in the dark.</t>
+  </si>
+  <si>
+    <t>Sonia saw a big shape.</t>
+  </si>
+  <si>
+    <t>Sonia was still afraid.</t>
+  </si>
+  <si>
+    <t>Sonia was not afraid of the dark anymore.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -136,6 +137,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -403,313 +407,313 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
